--- a/Ocean/Ocean Smart/step for check.xlsx
+++ b/Ocean/Ocean Smart/step for check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/my_app/Ocean/Ocean Smart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35B4DFA-CBC9-6442-9039-9628C058093E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9205CD1-C7EA-4943-9161-2C7C262404A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="3880" windowWidth="28040" windowHeight="17440" xr2:uid="{34E5801C-8F19-F04F-8EC0-DAE230FAFDC7}"/>
+    <workbookView xWindow="37800" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{34E5801C-8F19-F04F-8EC0-DAE230FAFDC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Logic ในการคิด เบี้ย</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>1. ทำการเลือก กธ. จาก table st_product</t>
   </si>
@@ -44,20 +41,59 @@
     <t>2. ใส่ เงินเอาประกัน</t>
   </si>
   <si>
-    <t xml:space="preserve">3. ทำการเอาข้อมูลลูกค้าไปหา ใน table </t>
-  </si>
-  <si>
     <t>สามัญหาที่ st_premium_rate_ordinary</t>
   </si>
   <si>
     <t>อุต หาที่ st_premium_reate_industry</t>
+  </si>
+  <si>
+    <t>โดยการหาจะเอา Product code, gender, age, mode การชำระ</t>
+  </si>
+  <si>
+    <t>เพื่อหาค่า premium ที่จะเอามาคำนวน</t>
+  </si>
+  <si>
+    <t>4. หาค่า premium_per_suminsure จาก st_product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. คำนวนเบี้ย </t>
+  </si>
+  <si>
+    <t>(ค่าจาก ข้อ 2 x ค่าจากข้อ 3) / ค่าจากข้อ 4</t>
+  </si>
+  <si>
+    <t>Logic ในการคิด เบี้ย ของ กธ. หลัก</t>
+  </si>
+  <si>
+    <t>Logic ในการคิดเบี้ยของ rider</t>
+  </si>
+  <si>
+    <t>1. เลือก rider ที่ต้องการ</t>
+  </si>
+  <si>
+    <t>2. ใส่เงินเอาประกัน</t>
+  </si>
+  <si>
+    <t>3. ทำการเอาข้อมูลลูกค้าไปหาใน table ตารางเบี้ย</t>
+  </si>
+  <si>
+    <t>3. ทำการเอาข้อมูลลูกค้าไปหา ใน table ตารางเบี้ย</t>
+  </si>
+  <si>
+    <t>ระบบ EROS คือระบบที่รวม ocean smart กับ e-app</t>
+  </si>
+  <si>
+    <t>คำนวนเบี้ยจาก</t>
+  </si>
+  <si>
+    <t>ทุนประกัน rider * ค่าที่ได้จากข้อ 3 / ทุนประกันของ กธ.​หลัก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +102,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Angsana New"/>
@@ -92,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8193F8-94EF-E744-AECD-C3EF7347F663}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="26" x14ac:dyDescent="0.4"/>
@@ -420,34 +464,94 @@
     <col min="1" max="16384" width="4.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="27" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D9" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
